--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_416__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_416__Reeval_LHS_Modell_1.2.xlsx
@@ -5894,13 +5894,13 @@
                   <c:v>61.93668746948242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.88116073608398</c:v>
+                  <c:v>40.88115692138672</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>43.93672561645508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.75208282470703</c:v>
+                  <c:v>77.75209045410156</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56.55063247680664</c:v>
@@ -5948,7 +5948,7 @@
                   <c:v>25.4515380859375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>91.63273620605469</c:v>
+                  <c:v>91.63275146484375</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>49.20457077026367</c:v>
@@ -5960,10 +5960,10 @@
                   <c:v>87.04526519775391</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>59.60408401489258</c:v>
+                  <c:v>59.60409545898438</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23.73300170898438</c:v>
+                  <c:v>23.73299980163574</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>62.08990097045898</c:v>
@@ -5981,7 +5981,7 @@
                   <c:v>28.72628974914551</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>31.03329658508301</c:v>
+                  <c:v>31.03329849243164</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>48.31472015380859</c:v>
@@ -5990,7 +5990,7 @@
                   <c:v>61.54568099975586</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.15488052368164</c:v>
+                  <c:v>23.15487861633301</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>30.46608352661133</c:v>
@@ -6002,34 +6002,34 @@
                   <c:v>60.86415863037109</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>61.53764724731445</c:v>
+                  <c:v>61.53765487670898</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35.57568740844727</c:v>
+                  <c:v>35.57568359375</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42.3841438293457</c:v>
+                  <c:v>42.38414001464844</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29.78307914733887</c:v>
+                  <c:v>29.78308296203613</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>56.47829818725586</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>73.70336151123047</c:v>
+                  <c:v>73.703369140625</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>52.2774543762207</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38.30391693115234</c:v>
+                  <c:v>38.30392074584961</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.40794372558594</c:v>
+                  <c:v>40.40793991088867</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>98.21595764160156</c:v>
+                  <c:v>98.21596527099609</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45.72127151489258</c:v>
@@ -6053,7 +6053,7 @@
                   <c:v>51.15816116333008</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.81288909912109</c:v>
+                  <c:v>43.81289291381836</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>76.27678680419922</c:v>
@@ -6062,7 +6062,7 @@
                   <c:v>31.1993522644043</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>79.60163116455078</c:v>
+                  <c:v>79.60164642333984</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>29.71332931518555</c:v>
@@ -6083,7 +6083,7 @@
                   <c:v>29.00229644775391</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>57.03915023803711</c:v>
+                  <c:v>57.03916168212891</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>44.31977462768555</c:v>
@@ -6098,7 +6098,7 @@
                   <c:v>53.30412673950195</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>25.86933135986328</c:v>
+                  <c:v>25.86932754516602</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>12.70054912567139</c:v>
@@ -6107,7 +6107,7 @@
                   <c:v>17.08956336975098</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>36.52119064331055</c:v>
+                  <c:v>36.52119445800781</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>83.47198486328125</c:v>
@@ -6128,22 +6128,22 @@
                   <c:v>32.35866928100586</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>61.18513870239258</c:v>
+                  <c:v>61.18514633178711</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>63.49999237060547</c:v>
+                  <c:v>63.50000381469727</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>56.78147506713867</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29.4410343170166</c:v>
+                  <c:v>29.44103050231934</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>73.22370910644531</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>55.27892303466797</c:v>
+                  <c:v>55.2789192199707</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>73.24833679199219</c:v>
@@ -6158,7 +6158,7 @@
                   <c:v>64.700927734375</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>29.88424301147461</c:v>
+                  <c:v>29.88423919677734</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>55.55624771118164</c:v>
@@ -7071,7 +7071,7 @@
         <v>70.2401</v>
       </c>
       <c r="F9">
-        <v>40.88116073608398</v>
+        <v>40.88115692138672</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>77.75208282470703</v>
+        <v>77.75209045410156</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>91.63273620605469</v>
+        <v>91.63275146484375</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>87.8788</v>
       </c>
       <c r="F31">
-        <v>59.60408401489258</v>
+        <v>59.60409545898438</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>88.6494</v>
       </c>
       <c r="F32">
-        <v>23.73300170898438</v>
+        <v>23.73299980163574</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>95.404</v>
       </c>
       <c r="F38">
-        <v>31.03329658508301</v>
+        <v>31.03329849243164</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>94.85250000000001</v>
       </c>
       <c r="F41">
-        <v>23.15488052368164</v>
+        <v>23.15487861633301</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>61.53764724731445</v>
+        <v>61.53765487670898</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>35.57568740844727</v>
+        <v>35.57568359375</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>42.3841438293457</v>
+        <v>42.38414001464844</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>29.78307914733887</v>
+        <v>29.78308296203613</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>88.3647</v>
       </c>
       <c r="F50">
-        <v>73.70336151123047</v>
+        <v>73.703369140625</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>87.05159999999999</v>
       </c>
       <c r="F52">
-        <v>38.30391693115234</v>
+        <v>38.30392074584961</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>97.9697</v>
       </c>
       <c r="F53">
-        <v>40.40794372558594</v>
+        <v>40.40793991088867</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>97.46850000000001</v>
       </c>
       <c r="F54">
-        <v>98.21595764160156</v>
+        <v>98.21596527099609</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>93.1279</v>
       </c>
       <c r="F62">
-        <v>43.81288909912109</v>
+        <v>43.81289291381836</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>79.60163116455078</v>
+        <v>79.60164642333984</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>57.03915023803711</v>
+        <v>57.03916168212891</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>84.90900000000001</v>
       </c>
       <c r="F77">
-        <v>25.86933135986328</v>
+        <v>25.86932754516602</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>91.229</v>
       </c>
       <c r="F80">
-        <v>36.52119064331055</v>
+        <v>36.52119445800781</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>92.4842</v>
       </c>
       <c r="F87">
-        <v>61.18513870239258</v>
+        <v>61.18514633178711</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>63.49999237060547</v>
+        <v>63.50000381469727</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>29.4410343170166</v>
+        <v>29.44103050231934</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>55.27892303466797</v>
+        <v>55.2789192199707</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>29.88424301147461</v>
+        <v>29.88423919677734</v>
       </c>
     </row>
     <row r="98" spans="1:6">
